--- a/Pokemon Open Sky/Moves.xlsx
+++ b/Pokemon Open Sky/Moves.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/581e96fe0fd6245c/Documentos/GitHub/Pokemon-Open-Sky/Pokemon Open Sky/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penut\OneDrive\Documentos\GitHub\Pokemon-Open-Sky\Pokemon Open Sky\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="8_{133BE90D-5851-4A97-A764-EA3B4D54AE1B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{6F2BCBEE-A52F-4903-A051-44F212159C99}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="8_{133BE90D-5851-4A97-A764-EA3B4D54AE1B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{562626C5-9299-4DEE-BEB6-29CECC0E7AB2}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8310" windowHeight="6255" xr2:uid="{4F920571-B32E-4803-9E06-E2A763D6822D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Moves" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Moves!$B$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
